--- a/NOTIFIKASI ANGSURAN.xlsx
+++ b/NOTIFIKASI ANGSURAN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PESANAN\wwebjs-bot-sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PESANAN\ff\wwebjs-bot-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="DATA ANGSURAN" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="254">
   <si>
     <t>BADAN USAHA MILIK DESA BERSAMA PANGKALAN LADA MAKMUR</t>
   </si>
@@ -800,9 +800,6 @@
   </si>
   <si>
     <t>+62 823-5496-8887</t>
-  </si>
-  <si>
-    <t>+62 856-4588-3081</t>
   </si>
 </sst>
 </file>
@@ -1331,22 +1328,13 @@
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,7 +1349,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2853,11 +2850,11 @@
   <dimension ref="A1:AD216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Q119" sqref="Q119"/>
+      <selection pane="bottomRight" activeCell="Q192" sqref="Q192:R193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2887,24 +2884,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
       <c r="Q1" s="84"/>
       <c r="R1" s="84"/>
       <c r="S1" s="84"/>
@@ -2913,24 +2910,24 @@
       <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
       <c r="Q2" s="84"/>
       <c r="R2" s="84"/>
       <c r="S2" s="84"/>
@@ -2939,24 +2936,24 @@
       <c r="V2" s="84"/>
     </row>
     <row r="3" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
       <c r="Q3" s="84"/>
       <c r="R3" s="84"/>
       <c r="S3" s="84"/>
@@ -2965,24 +2962,24 @@
       <c r="V3" s="84"/>
     </row>
     <row r="4" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
       <c r="Q4" s="84"/>
       <c r="R4" s="84"/>
       <c r="S4" s="84"/>
@@ -2991,22 +2988,22 @@
       <c r="V4" s="84"/>
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
       <c r="Q5" s="85"/>
       <c r="R5" s="85"/>
       <c r="S5" s="85"/>
@@ -3015,24 +3012,24 @@
       <c r="V5" s="85"/>
     </row>
     <row r="6" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
       <c r="Q6" s="86"/>
       <c r="R6" s="86"/>
       <c r="S6" s="86"/>
@@ -3041,22 +3038,22 @@
       <c r="V6" s="86"/>
     </row>
     <row r="7" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
       <c r="Q7" s="86"/>
       <c r="R7" s="86"/>
       <c r="S7" s="86"/>
@@ -3065,22 +3062,22 @@
       <c r="V7" s="86"/>
     </row>
     <row r="8" spans="1:23" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
       <c r="Q8" s="86"/>
       <c r="R8" s="86"/>
       <c r="S8" s="86"/>
@@ -3089,13 +3086,13 @@
       <c r="V8" s="86"/>
     </row>
     <row r="10" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="116" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3113,34 +3110,34 @@
       <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="110"/>
+      <c r="J10" s="108"/>
       <c r="K10" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="110" t="s">
+      <c r="L10" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="P10" s="112" t="s">
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="P10" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="111" t="s">
+      <c r="Q10" s="107" t="s">
         <v>244</v>
       </c>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
       <c r="T10" s="87"/>
       <c r="U10" s="87"/>
       <c r="V10" s="87"/>
     </row>
     <row r="11" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3172,7 +3169,7 @@
       <c r="N11" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="112"/>
+      <c r="P11" s="109"/>
       <c r="Q11" s="63" t="s">
         <v>245</v>
       </c>
@@ -9702,7 +9699,7 @@
       <c r="Q119" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="R119" s="116" t="s">
+      <c r="R119" s="106" t="s">
         <v>253</v>
       </c>
       <c r="S119" s="97"/>
@@ -13624,16 +13621,16 @@
       <c r="AD183" s="66"/>
     </row>
     <row r="184" spans="1:30" s="26" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="106" t="s">
+      <c r="A184" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B184" s="107"/>
-      <c r="C184" s="107"/>
-      <c r="D184" s="107"/>
-      <c r="E184" s="107"/>
-      <c r="F184" s="107"/>
-      <c r="G184" s="107"/>
-      <c r="H184" s="107"/>
+      <c r="B184" s="114"/>
+      <c r="C184" s="114"/>
+      <c r="D184" s="114"/>
+      <c r="E184" s="114"/>
+      <c r="F184" s="114"/>
+      <c r="G184" s="114"/>
+      <c r="H184" s="114"/>
       <c r="I184" s="25">
         <f t="shared" ref="I184:N184" si="31">SUM(I12:I183)</f>
         <v>295263500</v>
@@ -13829,12 +13826,6 @@
       <c r="L192" s="21"/>
       <c r="M192" s="27"/>
       <c r="N192" s="27"/>
-      <c r="Q192" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="R192" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="W192" s="33"/>
     </row>
     <row r="193" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13852,13 +13843,6 @@
       <c r="L193" s="21"/>
       <c r="M193" s="27"/>
       <c r="N193" s="27"/>
-      <c r="Q193" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R193" s="1">
-        <f>62859-7188-4746</f>
-        <v>50925</v>
-      </c>
       <c r="W193" s="33"/>
     </row>
     <row r="194" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14055,6 +14039,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="A184:H184"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="P10:P11"/>
@@ -14064,11 +14053,6 @@
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P8"/>
-    <mergeCell ref="A184:H184"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.36" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="72" r:id="rId1"/>
